--- a/medicine/Mort/Urban_Legend/Urban_Legend.xlsx
+++ b/medicine/Mort/Urban_Legend/Urban_Legend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urban Legend ou Légende urbaine au Québec est un film d'horreur américain réalisé par Jamie Blanks, sorti en 1998. Il s'agit du premier film de la trilogie Urban Legend.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les étudiants de l'université de Pendleton suivent assidûment les cours consacrés aux légendes urbaines qui évoquent des histoires terrifiantes dont on ignore l'origine.
 Lorsqu'une étudiante se fait violemment assassiner dans sa voiture par un inconnu, seuls Natalie Simon et le journaliste Paul croient à l'existence d'un tueur en série qui tue selon des légendes urbaines. Mais lorsque l'un de ses amis disparaît, personne ne croit Natalie qui l'a vu mourir sous ses yeux, pendu à un arbre au-dessus de sa voiture, comme dans la célèbre légende urbaine. Ce n'est qu'après la mort affreuse de sa colocataire que ses soupçons sur l'existence d'un tueur se confirment.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Urban Legend
 Titre québécois : Légende urbaine
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jared Leto (VF : Damien Witecka) : Paul Gardner
@@ -637,7 +655,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sarah Michelle Gellar accepte le rôle de Sasha, mais en raison des conflits d'horaires avec la série Buffy contre les vampires, elle abandonne le rôle. Jody Lyn O'Keefe refuse le rôle pour pouvoir tourner dans Halloween, 20 ans après.
 Brad Dourif fait un caméo (non crédité) dans le rôle du pompiste au début du film.
@@ -669,7 +689,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est très mal accueilli par les critiques et possède 25 % d'opinions positives sur Rotten Tomatoes, le site donne un commentaire : « Des éléments du film Scream sont présents dans ce film très inférieur ». La suite, Urban Legend 2, sera encore plus éreinté par les critiques et n'obtient que 9% d'opinions favorables sur Rotten Tomatoes.
 </t>
@@ -700,13 +722,84 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Entre 1998 et 1999, Urban Legend a été sélectionné 3 fois dans diverses catégories et a remporté 1 récompense[1].
-Récompenses
-International Film Music Critics Award (IFMCA) 1998 : IFMCA Award de la meilleure musique originale pour un film d'horreur / thriller décerné à Christopher Young.
-Nominations
-Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 1999 : meilleur jeune actrice pour Alicia Witt.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1998 et 1999, Urban Legend a été sélectionné 3 fois dans diverses catégories et a remporté 1 récompense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Urban_Legend</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urban_Legend</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>International Film Music Critics Award (IFMCA) 1998 : IFMCA Award de la meilleure musique originale pour un film d'horreur / thriller décerné à Christopher Young.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Urban_Legend</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urban_Legend</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 1999 : meilleur jeune actrice pour Alicia Witt.
 Prix Fangoria Chainsaw 1999 : meilleure actrice pour Alicia Witt.</t>
         </is>
       </c>
